--- a/Aplicacion CommCare HQ - Plan de Vacunacion.xlsx
+++ b/Aplicacion CommCare HQ - Plan de Vacunacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Question</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Escriba su nombre</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>/preg2</t>
@@ -525,7 +522,7 @@
   <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,183 +585,183 @@
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" t="s">
-        <v>42</v>
-      </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
